--- a/Map1.xlsx
+++ b/Map1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henni\Desktop\Henning\bitMiner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Henni\Desktop\BitMiner\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9C9CC0-A275-44F1-9BCF-E4511EE51737}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>level</t>
   </si>
@@ -32,58 +33,49 @@
     <t>bitcoins</t>
   </si>
   <si>
-    <t>gpu0</t>
-  </si>
-  <si>
-    <t>gpu1</t>
-  </si>
-  <si>
-    <t>gpu2</t>
-  </si>
-  <si>
-    <t>gpu3</t>
-  </si>
-  <si>
-    <t>gpu4</t>
-  </si>
-  <si>
-    <t>cpu0</t>
-  </si>
-  <si>
-    <t>cpu1</t>
-  </si>
-  <si>
-    <t>cpu2</t>
-  </si>
-  <si>
-    <t>cpu3</t>
-  </si>
-  <si>
-    <t>cpu4</t>
-  </si>
-  <si>
-    <t>racks0</t>
-  </si>
-  <si>
-    <t>racks1</t>
-  </si>
-  <si>
-    <t>racks2</t>
-  </si>
-  <si>
-    <t>racks3</t>
-  </si>
-  <si>
-    <t>racks4</t>
-  </si>
-  <si>
     <t>gems</t>
+  </si>
+  <si>
+    <t>cps</t>
+  </si>
+  <si>
+    <t>ips</t>
+  </si>
+  <si>
+    <t>cItem1</t>
+  </si>
+  <si>
+    <t>cItem2</t>
+  </si>
+  <si>
+    <t>cItem3</t>
+  </si>
+  <si>
+    <t>cItem4</t>
+  </si>
+  <si>
+    <t>cItem5</t>
+  </si>
+  <si>
+    <t>iItem1</t>
+  </si>
+  <si>
+    <t>iItem2</t>
+  </si>
+  <si>
+    <t>iItem3</t>
+  </si>
+  <si>
+    <t>iItem4</t>
+  </si>
+  <si>
+    <t>iItem5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,7 +125,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -428,16 +420,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A3" sqref="A3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,108 +437,90 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H3">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J3">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L3">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M3">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N3">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O3">
         <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="M3">
-        <v>13</v>
-      </c>
-      <c r="N3">
-        <v>14</v>
-      </c>
-      <c r="O3">
-        <v>15</v>
-      </c>
-      <c r="P3">
-        <v>16</v>
-      </c>
-      <c r="Q3">
-        <v>17</v>
-      </c>
-      <c r="R3">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
